--- a/config_4.13/act_hhl_ty_config.xlsx
+++ b/config_4.13/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -861,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>64</v>
@@ -927,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1492,13 +1492,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1512,25 +1524,13 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1544,13 +1544,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1562,13 +1562,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
